--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Department_SsMix_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Departme" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from JP Core Departme 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Department SS-MIX2 ValueSet</t>
+    <t>JP Core Department SS-MIX ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,22 +97,13 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Department_SsMix2Digits_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Department_SsMix3Digits_CS</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix2Digits_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix3Digits_VS</t>
   </si>
 </sst>
 </file>
@@ -379,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,22 +390,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -422,7 +397,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,23 +414,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -49,16 +49,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,10 +103,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix2Digits_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix3Digits_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix2Digits_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix3Digits_VS</t>
   </si>
 </sst>
 </file>
@@ -299,68 +302,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,12 +387,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -409,12 +414,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -94,19 +93,28 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright Japan Association of Medical Informatics (JAMI)  一般社団法人日本医療情報学会</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix2Digits_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix3Digits_VS</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.2</t>
   </si>
 </sst>
 </file>
@@ -357,15 +365,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,39 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-department-ssmix-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
